--- a/resources/Google scholar descriptors.xlsx
+++ b/resources/Google scholar descriptors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jx17/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10366C9E-FA44-C444-81BB-B47718676BDE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E634A7-60A5-A045-B5F7-F9352D6F10B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2760" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4453CA8D-76D6-2D42-9EE0-15E7AD82A2D0}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/Google scholar descriptors.xlsx
+++ b/resources/Google scholar descriptors.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jx17/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jx17/Desktop/SEMESTER6/research@FORWARD/XUKE/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E634A7-60A5-A045-B5F7-F9352D6F10B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3259F1E3-CCA2-8B47-BC0A-FEA2D52B1015}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4453CA8D-76D6-2D42-9EE0-15E7AD82A2D0}"/>
+    <workbookView xWindow="2740" yWindow="1480" windowWidth="28040" windowHeight="17440" xr2:uid="{4453CA8D-76D6-2D42-9EE0-15E7AD82A2D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1DEE00F-F8FE-E24B-8DAA-C1B2BA7D3C8F}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="168" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
